--- a/main_assignment/movies.xlsx
+++ b/main_assignment/movies.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,10 +465,123 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GOT</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2hrs</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HSSH</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Romance</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2 hours</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Salu bhai</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Barfi Part 2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>funny</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3 hours</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Harsh Beniwal</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Force</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3 hours</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
